--- a/biology/Zoologie/Congo_(film)/Congo_(film).xlsx
+++ b/biology/Zoologie/Congo_(film)/Congo_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Congo est un film américain réalisé par Frank Marshall et sorti en 1995. Le film est adapté du roman du même nom de Michael Crichton, publié en 1980, cependant, les évènements du film diffèrent du roman.
 </t>
@@ -511,7 +523,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En Afrique de l'Est, des chercheurs travaillant pour la société de satellites TraviCom sont attaqués par de mystérieux agresseurs après avoir découvert des diamants dans les ruines d'une cité perdue. Le directeur Travis envoie alors son meilleur élément, Karen Ross, pour récupérer les pierres.
 Au même moment, le professeur Peter Elliot mène des recherches sur Amy, une femelle gorille qui communique par langage des signes. Grâce à une technologie moderne, les gestes de l'animal sont « traduits » par un appareil vocal, ce qui lui permet de « dialoguer » avec les humains. Mais depuis quelque temps, Amy désire retourner dans la Nature. Peter et son ami Richard décident alors de la ramener dans sa région d’origine, au cœur des Monts Virunga. Un philanthrope roumain, Herkermer Homolka, propose de les financer et de les accompagner. En réalité, il veut profiter du voyage pour retrouver la légendaire cité de Zinj qui abriterait une mine de diamants d'une extraordinaire pureté. Karen Ross se joint à eux en payant le carburant à l'aéroport.
@@ -545,7 +559,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Congo
 Réalisation : Frank Marshall
@@ -600,7 +616,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Laura Linney  (VF : Stéphanie Murat) : le Dr Karen Ross
@@ -653,11 +671,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pré-production
-Bruce Campbell (Evil Dead), qui joue Charles Travis, avait auditionné pour le rôle de Peter Elliot. Aussi, Hugh Grant et Robin Wright ont décliné l'offre de jouer dans le film.
+          <t>Pré-production</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bruce Campbell (Evil Dead), qui joue Charles Travis, avait auditionné pour le rôle de Peter Elliot. Aussi, Hugh Grant et Robin Wright ont décliné l'offre de jouer dans le film.
 Premier véritable rôle au cinéma, après avoir connu des seconds rôles mis à part dans le feuilleton télévisé Les Chroniques de San Francisco, pour Laura Linney, l'actrice principale du film, qui attendra les rôles qu'elle obtient dans Peur primale de Gregory Hoblit (1996) et The Truman Show de Peter Weir (1998) pour qu'elle connaisse enfin le succès au cinéma.
-Tournage
-Le tournage a eu lieu du 26 septembre 1994 au 17 février 1995 au Costa Rica, Tanzanie, en Californie, en Ouganda et au Kenya.
 </t>
         </is>
       </c>
@@ -683,10 +704,49 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a eu lieu du 26 septembre 1994 au 17 février 1995 au Costa Rica, Tanzanie, en Californie, en Ouganda et au Kenya.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Congo_(film)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Congo_(film)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Sortie et accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Lors de la semaine de sa sortie en salles en 1995, Congo a engrangé 24 642 539 $ sur un budget de 50 millions de dollars. En tout, le film a engrangé sur le territoire américain plus de 80 millions de dollars. En France, le film n'a fait que 518 564 entrées. Même si Congo a connu un succès public, la critique n'a pas été tendre. Le film fut nommé dans sept catégories aux Razzie Awards de 1996.
 Box office
@@ -698,31 +758,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Congo_(film)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Congo_(film)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Congo_(film)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Congo_(film)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>1995 : Ernie Hudson récompensé du Universe Reader's Choice Award Best Supporting Actor in a Genre Motion Picutre au Sci-Fi Universe Magazine, USA
 1996 : Nomination au Saturn Award du meilleur réalisateur pour Frank Marshall, au meilleur film de science-fiction, et aux meilleurs effets spéciaux de Scott Farrar (en), Stan Winston et Michael Lantieri (en) au Academy of Science Fiction, Fantasy &amp; Horror Films, USA
@@ -732,31 +794,33 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Congo_(film)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Congo_(film)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Congo_(film)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Congo_(film)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Jeux vidéo</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film a été adapté sous la forme de plusieurs jeux vidéo :
 Congo The Movie: Descent into Zinj sur PC et Mac.
@@ -766,31 +830,33 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Congo_(film)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Congo_(film)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Congo_(film)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Congo_(film)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Différences entre le roman et le film</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Congo est une adaptation d'un roman de Michael Crichton sorti en 1980. Parmi les différences entre le roman et le film :
 Karen Ross ne va pas au Congo dans le but de récupérer les diamants, mais pour sauver son fiancé Charles Travis, le fils de son propre patron.
